--- a/data/trans_dic/P55$pareja-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,7; 65,4</t>
+          <t>34,6; 67,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,43; 61,34</t>
+          <t>27,32; 61,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,12; 57,99</t>
+          <t>24,98; 59,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 41,63</t>
+          <t>22,21; 42,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 30,38</t>
+          <t>6,94; 29,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 35,39</t>
+          <t>12,32; 35,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,03; 34,17</t>
+          <t>12,19; 34,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 15,75</t>
+          <t>6,66; 15,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 41,98</t>
+          <t>22,23; 41,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 39,84</t>
+          <t>19,8; 39,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 38,08</t>
+          <t>18,17; 36,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,97; 24,03</t>
+          <t>13,25; 23,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,38; 71,76</t>
+          <t>43,66; 69,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 52,18</t>
+          <t>21,65; 53,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 50,48</t>
+          <t>21,13; 50,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 44,55</t>
+          <t>20,19; 45,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 19,04</t>
+          <t>4,18; 19,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 22,62</t>
+          <t>7,33; 22,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 28,84</t>
+          <t>8,71; 28,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 23,67</t>
+          <t>11,87; 22,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 39,14</t>
+          <t>22,3; 38,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 28,97</t>
+          <t>14,07; 29,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 32,6</t>
+          <t>15,48; 32,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 27,34</t>
+          <t>16,39; 27,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 58,63</t>
+          <t>16,38; 57,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 58,13</t>
+          <t>15,19; 55,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,87; 73,56</t>
+          <t>33,9; 74,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,65; 58,56</t>
+          <t>26,21; 56,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 18,58</t>
+          <t>1,91; 19,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 29,49</t>
+          <t>7,92; 29,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 26,78</t>
+          <t>7,94; 28,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 16,22</t>
+          <t>4,55; 16,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 26,83</t>
+          <t>9,17; 26,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 32,89</t>
+          <t>12,96; 33,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 40,32</t>
+          <t>18,39; 40,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 27,67</t>
+          <t>12,93; 26,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 59,38</t>
+          <t>21,62; 59,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,62; 63,38</t>
+          <t>29,9; 61,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,02; 69,24</t>
+          <t>33,23; 67,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 53,7</t>
+          <t>30,23; 53,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 18,48</t>
+          <t>3,94; 18,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 20,39</t>
+          <t>6,09; 20,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 27,3</t>
+          <t>8,02; 26,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 15,48</t>
+          <t>7,06; 15,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 24,55</t>
+          <t>10,71; 25,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 31,68</t>
+          <t>15,77; 32,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 35,27</t>
+          <t>18,05; 36,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 25,47</t>
+          <t>15,19; 24,76</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,28; 58,46</t>
+          <t>40,63; 56,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,9; 49,03</t>
+          <t>31,16; 49,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,68; 53,52</t>
+          <t>35,42; 52,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,26; 42,29</t>
+          <t>29,59; 41,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,35</t>
+          <t>7,28; 15,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 20,1</t>
+          <t>11,32; 19,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 22,7</t>
+          <t>12,73; 22,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,66</t>
+          <t>9,68; 14,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 28,91</t>
+          <t>20,12; 28,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,1</t>
+          <t>19,88; 28,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 30,71</t>
+          <t>21,5; 30,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,58</t>
+          <t>17,16; 22,62</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13633</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11347</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15602</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7324</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13632</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12892</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8158</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24554</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27265</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24239</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23760</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11720; 22717</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8891; 19875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6938; 16488</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11023; 21047</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3108; 13048</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7513; 21396</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7331; 20665</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5306; 12412</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17489; 32753</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18520; 37204</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15972; 32049</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17127; 29793</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27598</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16216</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14310</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12191</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7138</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11997</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13100</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14365</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34736</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28214</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27410</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26556</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20964; 33609</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9884; 24258</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8642; 20558</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7810; 17432</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2829; 12866</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6476; 19699</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6691; 21513</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10210; 19373</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25799; 44853</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18858; 39404</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18234; 37946</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20435; 34284</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9431</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12694</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10420</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8490</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7719</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5660</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11224</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20413</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16079</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3535; 12356</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4244; 15526</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7886; 17348</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6691; 14513</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>886; 9105</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4110; 15138</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4097; 14657</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2655; 9608</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6237; 18148</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10350; 26690</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13764; 30302</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10841; 22206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9161</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18363</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15196</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17980</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6832</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9102</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12444</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11291</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15993</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27466</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27640</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29272</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4996; 13686</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11971; 24677</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9805; 19874</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13067; 23042</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2837; 13110</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4766; 16268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6321; 21143</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7360; 16382</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10185; 24445</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>18663; 37981</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19554; 39346</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>22408; 36526</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>61584</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>57644</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>53547</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>56193</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24923</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46155</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39474</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86507</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>100865</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>99702</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>95666</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51428; 71659</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45551; 71809</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43026; 63764</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46470; 65574</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16804; 36065</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31646; 55542</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34048; 60975</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31775; 48243</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71914; 103582</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>84626; 120774</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>83602; 118789</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>83271; 109756</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>